--- a/Base_de_datos.xlsx
+++ b/Base_de_datos.xlsx
@@ -406,7 +406,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A68" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A84" sqref="A84"/>
@@ -2748,6 +2748,106 @@
         </is>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>202200087538</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Demora en la instalacion del suministro</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Responsabilidad de la instaladora</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>/1RA5B6RV-QBRxaPkXbjiSzCgRUzv5Il_n/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>202200087540</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Cobro injustificado</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Si hubo notificacion</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>/1Y25FosqhhnOIo93SYq70vqZnP3ryiIBb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>202200087557</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Demora en reconexion</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Visita infructuosa</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>/10ooyDMqFY2BMSDJYuVNueLGRmkYdPCUb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>202200087789</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Demora en reconexion</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Visita infructuosa</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>/1z29aD4oPvguGGHDJcyGNq_Myq4cGnBVg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>202200088517</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Demora en reconexion</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Hubieron 2 recibos pendientes de pago</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>/1RafrnefXenrOyspGtMUDDU1tFNlz4bIn/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="360" verticalDpi="360"/>
